--- a/Danh sách nhân viên.xlsx
+++ b/Danh sách nhân viên.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\GitHub\MISA.Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MISA\Debug\MISA.Import-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9DBD0-2CD7-410D-8C43-EDD072D1C4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B873152-EF73-4B97-99F1-457933AB122C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách LĐ" sheetId="1" r:id="rId1"/>
@@ -1499,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1552,6 +1552,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1836,32 +1848,32 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" customWidth="1"/>
     <col min="8" max="8" width="18" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="7"/>
-    <col min="13" max="13" width="15.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="7" customWidth="1"/>
-    <col min="16" max="17" width="16.28515625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="10.109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="7"/>
+    <col min="13" max="13" width="15.109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="7" customWidth="1"/>
+    <col min="16" max="17" width="16.33203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1898,7 @@
       <c r="H1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="20" t="s">
         <v>437</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1917,7 +1929,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1946,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1945,7 +1957,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1970,7 +1982,7 @@
       <c r="H3" s="17">
         <v>43713</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="22">
         <v>1989</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1997,7 +2009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2016,7 +2028,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -2037,7 +2049,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2062,7 +2074,7 @@
       <c r="H5" s="17">
         <v>43713</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="22" t="s">
         <v>426</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -2089,7 +2101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2114,7 +2126,7 @@
       <c r="H6" s="17">
         <v>43713</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="22" t="s">
         <v>426</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -2139,7 +2151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2164,7 +2176,7 @@
       <c r="H7" s="17">
         <v>43713</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="22" t="s">
         <v>426</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -2191,7 +2203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -2216,7 +2228,7 @@
       <c r="H8" s="17">
         <v>43713</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="22" t="s">
         <v>426</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -2243,7 +2255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2252,7 +2264,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -2263,7 +2275,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2272,7 +2284,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2283,7 +2295,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2292,7 +2304,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2303,7 +2315,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2312,7 +2324,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2323,7 +2335,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2332,7 +2344,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2343,7 +2355,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2352,7 +2364,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2363,7 +2375,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2372,7 +2384,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2383,7 +2395,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2392,7 +2404,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2403,7 +2415,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2412,7 +2424,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2423,7 +2435,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2432,7 +2444,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2443,7 +2455,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2452,7 +2464,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2463,7 +2475,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2472,7 +2484,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2483,7 +2495,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2492,7 +2504,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2503,7 +2515,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2512,7 +2524,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2523,7 +2535,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2532,7 +2544,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2543,7 +2555,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2552,7 +2564,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2563,7 +2575,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2572,7 +2584,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -2625,25 +2637,26 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="10.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="7"/>
+    <col min="7" max="7" width="10.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>443</v>
       </c>
@@ -2678,7 +2691,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2691,7 +2704,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2722,7 +2735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2751,7 +2764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2793,7 +2806,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2806,7 +2819,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2819,7 +2832,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2832,7 +2845,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2845,7 +2858,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2858,7 +2871,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2871,7 +2884,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2884,7 +2897,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2897,7 +2910,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2910,7 +2923,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2972,21 +2985,21 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" customWidth="1"/>
-    <col min="27" max="27" width="55.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" customWidth="1"/>
+    <col min="27" max="27" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -3039,7 +3052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3209,7 +3222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I7" s="10" t="s">
         <v>76</v>
       </c>
@@ -3232,7 +3245,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I8" s="10" t="s">
         <v>81</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I9" s="10" t="s">
         <v>85</v>
       </c>
@@ -3263,7 +3276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I10" s="10" t="s">
         <v>89</v>
       </c>
@@ -3277,7 +3290,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I11" s="10" t="s">
         <v>93</v>
       </c>
@@ -3291,7 +3304,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I12" s="10" t="s">
         <v>96</v>
       </c>
@@ -3305,7 +3318,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I13" s="10" t="s">
         <v>100</v>
       </c>
@@ -3319,7 +3332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I14" s="10" t="s">
         <v>104</v>
       </c>
@@ -3333,7 +3346,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I15" s="10" t="s">
         <v>108</v>
       </c>
@@ -3347,7 +3360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I16" s="10" t="s">
         <v>112</v>
       </c>
@@ -3361,7 +3374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I17" s="10" t="s">
         <v>116</v>
       </c>
@@ -3375,7 +3388,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I18" s="10" t="s">
         <v>120</v>
       </c>
@@ -3389,7 +3402,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I19" s="10" t="s">
         <v>124</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I20" s="10" t="s">
         <v>128</v>
       </c>
@@ -3417,7 +3430,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I21" s="10" t="s">
         <v>132</v>
       </c>
@@ -3431,7 +3444,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I22" s="10" t="s">
         <v>136</v>
       </c>
@@ -3445,7 +3458,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I23" s="10" t="s">
         <v>140</v>
       </c>
@@ -3459,7 +3472,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I24" s="10" t="s">
         <v>144</v>
       </c>
@@ -3473,7 +3486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I25" s="10" t="s">
         <v>148</v>
       </c>
@@ -3487,7 +3500,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I26" s="10" t="s">
         <v>151</v>
       </c>
@@ -3498,7 +3511,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I27" s="10" t="s">
         <v>154</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I28" s="10" t="s">
         <v>157</v>
       </c>
@@ -3520,7 +3533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I29" s="10" t="s">
         <v>160</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I30" s="10" t="s">
         <v>163</v>
       </c>
@@ -3542,7 +3555,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I31" s="10" t="s">
         <v>166</v>
       </c>
@@ -3553,7 +3566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I32" s="10" t="s">
         <v>169</v>
       </c>
@@ -3564,7 +3577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I33" s="10" t="s">
         <v>172</v>
       </c>
@@ -3575,7 +3588,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I34" s="10" t="s">
         <v>175</v>
       </c>
@@ -3586,7 +3599,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I35" s="10" t="s">
         <v>178</v>
       </c>
@@ -3597,7 +3610,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I36" s="10" t="s">
         <v>181</v>
       </c>
@@ -3608,7 +3621,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I37" s="10" t="s">
         <v>184</v>
       </c>
@@ -3619,7 +3632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I38" s="10" t="s">
         <v>187</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I39" s="10" t="s">
         <v>190</v>
       </c>
@@ -3641,7 +3654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I40" s="10" t="s">
         <v>193</v>
       </c>
@@ -3652,7 +3665,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I41" s="10" t="s">
         <v>196</v>
       </c>
@@ -3663,7 +3676,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I42" s="10" t="s">
         <v>199</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I43" s="10" t="s">
         <v>202</v>
       </c>
@@ -3685,7 +3698,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I44" s="10" t="s">
         <v>205</v>
       </c>
@@ -3696,7 +3709,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I45" s="10" t="s">
         <v>208</v>
       </c>
@@ -3707,7 +3720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I46" s="10" t="s">
         <v>211</v>
       </c>
@@ -3715,7 +3728,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I47" s="10" t="s">
         <v>213</v>
       </c>
@@ -3723,7 +3736,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I48" s="10" t="s">
         <v>215</v>
       </c>
@@ -3731,7 +3744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I49" s="10" t="s">
         <v>217</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I50" s="10" t="s">
         <v>219</v>
       </c>
@@ -3747,7 +3760,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I51" s="10" t="s">
         <v>221</v>
       </c>
@@ -3755,7 +3768,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I52" s="10" t="s">
         <v>223</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I53" s="10" t="s">
         <v>225</v>
       </c>
@@ -3771,7 +3784,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I54" s="10" t="s">
         <v>227</v>
       </c>
@@ -3779,7 +3792,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I55" s="10" t="s">
         <v>229</v>
       </c>
@@ -3787,7 +3800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I56" s="10" t="s">
         <v>231</v>
       </c>
@@ -3795,7 +3808,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I57" s="10" t="s">
         <v>233</v>
       </c>
@@ -3803,932 +3816,932 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I58" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I59" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I60" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I61" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I62" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I63" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I64" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I81" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I82" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I83" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I84" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I85" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I86" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I87" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I88" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I89" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I90" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I91" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I92" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I93" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I94" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I95" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I96" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I109" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I110" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I111" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I112" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I113" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I114" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I115" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I116" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I117" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I118" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I119" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I120" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I121" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I122" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I123" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I124" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I125" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I126" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I127" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I128" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I129" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I130" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I131" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I132" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I133" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I134" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I135" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I136" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I137" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I138" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I139" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I140" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I141" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I142" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I143" s="10" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I144" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I145" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I146" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I147" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I148" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I149" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I150" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I151" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I152" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I153" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I154" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I155" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I156" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I157" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I158" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I159" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I160" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I161" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I162" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I163" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I164" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I165" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I166" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I167" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I168" s="10" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I169" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I170" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I171" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I172" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I173" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I174" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I175" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I176" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I177" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I178" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I179" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I180" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I181" s="10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I182" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I183" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I184" s="10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I185" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I186" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I187" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I188" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I189" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I190" s="10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I191" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I192" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I193" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I194" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I195" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I196" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I197" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I198" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I199" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I200" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I201" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I202" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I203" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I204" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I205" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I206" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I207" s="10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I208" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I209" s="10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I210" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I211" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I212" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I213" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I214" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I215" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I216" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I217" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I218" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I219" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I220" s="10" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I221" s="10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I222" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I223" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I224" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I225" s="10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I226" s="10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I227" s="10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I228" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I229" s="10" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I230" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I231" s="10" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I232" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I233" s="10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I234" s="10" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I235" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I236" s="10" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I237" s="10" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I238" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I239" s="10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I240" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I241" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I242" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I243" s="10" t="s">
         <v>419</v>
       </c>
